--- a/evaluation/results/isolation_forest/augmented/none_2/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/none_2/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7200374531835206</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="C2">
-        <v>0.8877887788778878</v>
+        <v>0.5746864310148233</v>
       </c>
       <c r="D2">
-        <v>0.5037453183520599</v>
+        <v>0.9438202247191011</v>
       </c>
       <c r="E2">
-        <v>0.6427718040621266</v>
+        <v>0.7143869596031184</v>
       </c>
       <c r="F2">
-        <v>0.5514555145551455</v>
+        <v>0.8363757052771325</v>
       </c>
       <c r="G2">
-        <v>0.5122683659269025</v>
+        <v>0.921065579531876</v>
       </c>
       <c r="H2">
-        <v>0.7200374531835206</v>
+        <v>0.7968410273674761</v>
       </c>
       <c r="I2">
-        <v>269</v>
+        <v>504</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>373</v>
       </c>
       <c r="K2">
-        <v>500</v>
+        <v>161</v>
       </c>
       <c r="L2">
-        <v>265</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6535947712418301</v>
+        <v>0.8429319371727748</v>
       </c>
       <c r="C2">
-        <v>0.9363295880149812</v>
+        <v>0.301498127340824</v>
       </c>
       <c r="D2">
-        <v>0.7698229407236336</v>
+        <v>0.4441379310344827</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8877887788778878</v>
+        <v>0.5746864310148233</v>
       </c>
       <c r="C3">
-        <v>0.5037453183520599</v>
+        <v>0.9438202247191011</v>
       </c>
       <c r="D3">
-        <v>0.6427718040621266</v>
+        <v>0.7143869596031184</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7200374531835206</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="C4">
-        <v>0.7200374531835206</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D4">
-        <v>0.7200374531835206</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="E4">
-        <v>0.7200374531835206</v>
+        <v>0.6226591760299626</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.770691775059859</v>
+        <v>0.7088091840937991</v>
       </c>
       <c r="C5">
-        <v>0.7200374531835205</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D5">
-        <v>0.70629737239288</v>
+        <v>0.5792624453188006</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7706917750598589</v>
+        <v>0.7088091840937991</v>
       </c>
       <c r="C6">
-        <v>0.7200374531835206</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D6">
-        <v>0.70629737239288</v>
+        <v>0.5792624453188006</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>161</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>265</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>269</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
